--- a/Documentación - Borradores y más/Diccionario de datos.xlsx
+++ b/Documentación - Borradores y más/Diccionario de datos.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RoyAlejo\Documents\GitHub\RestaurApp\Documentación - Borradores y más\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18915" windowHeight="11820"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="102">
   <si>
     <t>Llave</t>
   </si>
@@ -24,9 +29,6 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>Tamaño</t>
-  </si>
-  <si>
     <t>Descripción</t>
   </si>
   <si>
@@ -48,18 +50,6 @@
     <t>Campo</t>
   </si>
   <si>
-    <t>RestaurApp</t>
-  </si>
-  <si>
-    <t>Descripción:</t>
-  </si>
-  <si>
-    <t>Base de Datos:</t>
-  </si>
-  <si>
-    <t>Valor por Defecto</t>
-  </si>
-  <si>
     <t>usuario</t>
   </si>
   <si>
@@ -90,17 +80,260 @@
     <t>estado</t>
   </si>
   <si>
-    <t>varchar</t>
-  </si>
-  <si>
     <t>FK</t>
+  </si>
+  <si>
+    <t>restaurante</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>latitud</t>
+  </si>
+  <si>
+    <t>longitud</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>puntuacionTotal</t>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+  </si>
+  <si>
+    <t>bigint(8)</t>
+  </si>
+  <si>
+    <t>decimal(10, 2)</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>idFoto</t>
+  </si>
+  <si>
+    <t>foto</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>formato</t>
+  </si>
+  <si>
+    <t>distrito</t>
+  </si>
+  <si>
+    <t>recomendacion</t>
+  </si>
+  <si>
+    <t>comentario</t>
+  </si>
+  <si>
+    <t>puntuacion</t>
+  </si>
+  <si>
+    <t>idUsuario</t>
+  </si>
+  <si>
+    <t>idRestaurante</t>
+  </si>
+  <si>
+    <t>idReceptor</t>
+  </si>
+  <si>
+    <t>idRecomendacion</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>restaurante_categoria</t>
+  </si>
+  <si>
+    <t>idCategoria</t>
+  </si>
+  <si>
+    <t>preferencia</t>
+  </si>
+  <si>
+    <t>Nombres del usuario</t>
+  </si>
+  <si>
+    <t>Apllidos del usuario</t>
+  </si>
+  <si>
+    <t>Nombre de usuario</t>
+  </si>
+  <si>
+    <t>Dirección de correo del usuario</t>
+  </si>
+  <si>
+    <t>Id de la cuenta de facebook relacionada con el usuario</t>
+  </si>
+  <si>
+    <t>Contraseña del usuario</t>
+  </si>
+  <si>
+    <t>Id del distrito del usuario</t>
+  </si>
+  <si>
+    <t>Indica si el usuario está activo o inactivo</t>
+  </si>
+  <si>
+    <t>Id del restaurante</t>
+  </si>
+  <si>
+    <t>Nombre del restaurante</t>
+  </si>
+  <si>
+    <t>Id del distrito del restaurante</t>
+  </si>
+  <si>
+    <t>Latitud en que se encuentra el restaurante</t>
+  </si>
+  <si>
+    <t>Longitud en que se encuentra el restaurante</t>
+  </si>
+  <si>
+    <t>Descripción del restaurante</t>
+  </si>
+  <si>
+    <t>Id de la foto del restaurante</t>
+  </si>
+  <si>
+    <t>Puntuación total del restaurante</t>
+  </si>
+  <si>
+    <t>Indica si el restaurante está activo o inactivo</t>
+  </si>
+  <si>
+    <t>Id de la foto</t>
+  </si>
+  <si>
+    <t>Nombre de la foto</t>
+  </si>
+  <si>
+    <t>Url de la foto</t>
+  </si>
+  <si>
+    <t>Formato de la foto</t>
+  </si>
+  <si>
+    <t>Indica si la foto está activo o inactiva</t>
+  </si>
+  <si>
+    <t>Id del distrito</t>
+  </si>
+  <si>
+    <t>Nombre del distrito</t>
+  </si>
+  <si>
+    <t>Id de la recomendación</t>
+  </si>
+  <si>
+    <t>Comentario del usuario sobre el restaurante</t>
+  </si>
+  <si>
+    <t>Puntuación del restaurante dada por el usuario</t>
+  </si>
+  <si>
+    <t>Id del usuario que realizó la recomendación</t>
+  </si>
+  <si>
+    <t>Id del restaurante relacionado con la recomendación</t>
+  </si>
+  <si>
+    <t>Id del usuario al que otro usuario recomendó un restaurante</t>
+  </si>
+  <si>
+    <t>Indica si la recomendación está activa o inactiva</t>
+  </si>
+  <si>
+    <t>Indica si el distrito está activo o inactivo</t>
+  </si>
+  <si>
+    <t>Id de recomendación_foto</t>
+  </si>
+  <si>
+    <t>Id de la foto relacionada con la recomendación</t>
+  </si>
+  <si>
+    <t>Indica si recomendacion_foto está activo o inactivo</t>
+  </si>
+  <si>
+    <t>recomendacion_foto</t>
+  </si>
+  <si>
+    <t>Indica si la categoría está activa o inactiva</t>
+  </si>
+  <si>
+    <t>Id de la categoría</t>
+  </si>
+  <si>
+    <t>Nombre de la categoría. Indica si es Comida marina, criolla, etc.</t>
+  </si>
+  <si>
+    <t>Descripcion de la categoría de restaurante</t>
+  </si>
+  <si>
+    <t>Id de restaurante_categoria</t>
+  </si>
+  <si>
+    <t>Indica si restaurante_categoria está activo o inactivo</t>
+  </si>
+  <si>
+    <t>Id de la preferencia</t>
+  </si>
+  <si>
+    <t>Indica si la preferencia está activa o inactiva</t>
+  </si>
+  <si>
+    <t>Indica si el usuario es o no administrador</t>
+  </si>
+  <si>
+    <t>Descripción entidad</t>
+  </si>
+  <si>
+    <t>Entidad que guarda la información relacionada con el usuario</t>
+  </si>
+  <si>
+    <t>Entidad que guarda la información relacionada con un restaurante</t>
+  </si>
+  <si>
+    <t>Entidad que guarda la información de una foto.</t>
+  </si>
+  <si>
+    <t>Entidad que guarda los distritos.</t>
+  </si>
+  <si>
+    <t>Entidad que guarda una recomendación. Asimismo, esta entidad se puede utilizar para recomendar a otro usuario.</t>
+  </si>
+  <si>
+    <t>Entidad que guarda las fotos relacionadas con una recomendación.</t>
+  </si>
+  <si>
+    <t>Entidad que guarda los tipos de comida que sirven los restaurantes.</t>
+  </si>
+  <si>
+    <t>Entidad que guarda las categorías(tipo de comida) que sirve un restaurante.</t>
+  </si>
+  <si>
+    <t>Entidad que almacena las categorías de preferencia del usuario.</t>
+  </si>
+  <si>
+    <t>Default</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,16 +341,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -125,18 +393,215 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -183,7 +648,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,9 +680,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,6 +715,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,191 +891,942 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8">
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" t="s">
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="2">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H20" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="3">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="H21" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="18"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="18"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="18"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="19"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="18"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="18"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="18"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="18"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="18"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="19"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="18"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="18"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="19"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="18"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="18"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="19"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="18"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="18"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="19"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="18"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="D9" t="s">
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="18"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="19"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
+      <c r="F52" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="B37:B40"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
